--- a/medicine/Psychotrope/Keemun/Keemun.xlsx
+++ b/medicine/Psychotrope/Keemun/Keemun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Keemun ou Qimen (祁門紅茶, pinyin : qímén hóngchá) est un thé noir provenant du district éponyme de Qimen et de Huangshan, dans la province d'Anhui en Chine.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La production de thé noir dans la région ne remonte qu'à 1875 ; elle n'était auparavant productrice que de thé vert. Depuis, le Keemun est devenu un ingrédient majeur des blends destinés à l'Europe.
 </t>
@@ -543,7 +557,9 @@
           <t>Préparation et goût</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Keemun n'a pas besoin d'être infusé en grandes quantités pour que l'on sente les différentes notes. L'infusion est claire pour un thé noir, avec des senteurs boisées. Le goût est très fruité, avec parfois des notes de chocolat.
 Aujourd'hui on peut distinguer les variétés suivantes : 
@@ -577,7 +593,9 @@
           <t>Lien interne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Thé en Chine
  Portail de la Chine   Portail des boissons   Portail du thé                   </t>
